--- a/学习任务.xlsx
+++ b/学习任务.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>任务</t>
   </si>
@@ -50,6 +50,9 @@
   <si>
     <t>bulma css框架</t>
   </si>
+  <si>
+    <t>javascript 设计模式</t>
+  </si>
 </sst>
 </file>
 
@@ -57,9 +60,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -223,6 +226,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -241,6 +256,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -253,6 +274,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -277,18 +310,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -313,25 +364,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,61 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +537,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -1076,6 +1079,11 @@
       </c>
       <c r="B4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/学习任务.xlsx
+++ b/学习任务.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>任务</t>
   </si>
@@ -33,6 +33,9 @@
     <t>结束时间</t>
   </si>
   <si>
+    <t>link</t>
+  </si>
+  <si>
     <t>深入浅出nodejs</t>
   </si>
   <si>
@@ -52,6 +55,21 @@
   </si>
   <si>
     <t>javascript 设计模式</t>
+  </si>
+  <si>
+    <t>用less和react构建一套可用的组件</t>
+  </si>
+  <si>
+    <t>学习sass</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>https://martinfowler.com/articles/richardsonMaturityModel.html</t>
+  </si>
+  <si>
+    <t>页面游戏？</t>
   </si>
 </sst>
 </file>
@@ -73,6 +91,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -170,14 +196,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,7 +543,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -537,79 +555,79 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,60 +636,63 @@
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,20 +1039,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="39.625" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="63.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,17 +1068,20 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>42773</v>
@@ -1067,26 +1092,52 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" display="https://martinfowler.com/articles/richardsonMaturityModel.html"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
